--- a/backend/storage/app/xlsx/seed_cidades_pa.xlsx
+++ b/backend/storage/app/xlsx/seed_cidades_pa.xlsx
@@ -23,7 +23,7 @@
     <t>ABAETETUBENSE</t>
   </si>
   <si>
-    <t>41bfacb9-6eb5-46ed-9d05-f05d8e24244e</t>
+    <t>38891cb5-a747-4292-8600-d8ac0f9b359b</t>
   </si>
   <si>
     <t>ABEL FIGUEIREDO</t>

--- a/backend/storage/app/xlsx/seed_cidades_pa.xlsx
+++ b/backend/storage/app/xlsx/seed_cidades_pa.xlsx
@@ -23,7 +23,7 @@
     <t>ABAETETUBENSE</t>
   </si>
   <si>
-    <t>38891cb5-a747-4292-8600-d8ac0f9b359b</t>
+    <t>fe3e94b4-af2f-45ec-ae14-9af875fede31</t>
   </si>
   <si>
     <t>ABEL FIGUEIREDO</t>

--- a/backend/storage/app/xlsx/seed_cidades_pa.xlsx
+++ b/backend/storage/app/xlsx/seed_cidades_pa.xlsx
@@ -23,7 +23,7 @@
     <t>ABAETETUBENSE</t>
   </si>
   <si>
-    <t>fe3e94b4-af2f-45ec-ae14-9af875fede31</t>
+    <t>a077dc2e-1d10-4d64-852a-c4192c5263fd</t>
   </si>
   <si>
     <t>ABEL FIGUEIREDO</t>

--- a/backend/storage/app/xlsx/seed_cidades_pa.xlsx
+++ b/backend/storage/app/xlsx/seed_cidades_pa.xlsx
@@ -23,7 +23,7 @@
     <t>ABAETETUBENSE</t>
   </si>
   <si>
-    <t>a077dc2e-1d10-4d64-852a-c4192c5263fd</t>
+    <t>fdcaf171-360e-41ec-9724-d0029123fe8a</t>
   </si>
   <si>
     <t>ABEL FIGUEIREDO</t>

--- a/backend/storage/app/xlsx/seed_cidades_pa.xlsx
+++ b/backend/storage/app/xlsx/seed_cidades_pa.xlsx
@@ -23,7 +23,7 @@
     <t>ABAETETUBENSE</t>
   </si>
   <si>
-    <t>fdcaf171-360e-41ec-9724-d0029123fe8a</t>
+    <t>f56cdc52-9038-4329-bbd7-9fa7b60f3499</t>
   </si>
   <si>
     <t>ABEL FIGUEIREDO</t>

--- a/backend/storage/app/xlsx/seed_cidades_pa.xlsx
+++ b/backend/storage/app/xlsx/seed_cidades_pa.xlsx
@@ -23,7 +23,7 @@
     <t>ABAETETUBENSE</t>
   </si>
   <si>
-    <t>f56cdc52-9038-4329-bbd7-9fa7b60f3499</t>
+    <t>ada09112-0fc3-4884-ac3a-6d91ec0e1bd8</t>
   </si>
   <si>
     <t>ABEL FIGUEIREDO</t>
